--- a/biology/Botanique/Salix_caesia/Salix_caesia.xlsx
+++ b/biology/Botanique/Salix_caesia/Salix_caesia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix caesia, le Saule bleuâtre ou encore le Saule bleu, est un petit buisson de la famille des saules. L'espèce se rencontre dans les Alpes.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Salix ischnoclada Gand., 1881
 Salix latiuscula Gand., 1881
@@ -525,7 +539,7 @@
 Salix wimmeri Hartig, 1852
 Salix dendrocharis Gand., 1881
 Salix divergens Andersson, 1868
-Salix frayi Gand., 1881[1].</t>
+Salix frayi Gand., 1881.</t>
         </is>
       </c>
     </row>
@@ -553,12 +567,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix caesia est un sous-arbrisseau ne dépassant par un mètre, plus ou moins couché, à chatons de petite taille et contemporains des feuilles. Celles-ci sont entières, glabres blauâtres au-dessus et d'un vert glauque sur la face inférieure. Ce petit saule, rare, se rencontre dans les zones humides des Alpes, à une altitude allant de 1 700 à 2 300 m.
 La hauteur de la plante va de 30 cm à 1 m. Les rameaux sont dressés ou couchés-ascendants. 
 Ses feuilles, ovales à largement lancéolées, mesurent de 1,5 à 3 cm de longueur. Les chatons atteignent une longueur de 2,5 à 3 cm.
-La floraison a lieu de juin à août[2].
+La floraison a lieu de juin à août.
 </t>
         </is>
       </c>
